--- a/List of test cases.xlsx
+++ b/List of test cases.xlsx
@@ -1,18 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Testing\Project\2021.APCS.CS423.GroupG.2-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86244C72-1388-46C4-9862-425C8E86F23A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Test cases" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Examples" sheetId="2" r:id="rId5"/>
+    <sheet name="Test cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Examples" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="712">
   <si>
     <t>ID</t>
   </si>
@@ -178,33 +198,33 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>1. Admin added a product named "def" with new price = 999, while old price =1</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Products.aspx?Keyword=def</t>
     </r>
@@ -405,9 +425,9 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Red text does show up
 2. No wiping occur
@@ -415,10 +435,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
         <b/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>still remain</t>
     </r>
@@ -512,18 +532,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Not logged in
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Default.aspx</t>
     </r>
@@ -531,18 +551,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>1. Click "Create account" on top menu bar
 2. Should redirect to</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve"> http://mymarket-2.apphb.com/Register.aspx
 3. Fill the field as follow:
@@ -591,18 +611,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Not logged in
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Default.aspx</t>
     </r>
@@ -624,18 +644,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Not logged in
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Default.aspx</t>
     </r>
@@ -767,8 +787,8 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Created an account with the following info:
 {Username: NTung, Password: abc@123, Email: gooooogle1503@gmail.com, Security answer: red}
@@ -776,10 +796,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Login.aspx</t>
     </r>
@@ -787,26 +807,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>1. Click "Forget password?"
 2. Redirected to</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/PasswordRecovery.aspx
 3. Enter username = "NTung" to receive password
@@ -1007,8 +1027,8 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Click "Add to cart" under "Fry Pan"
 2. Check to see that the cart item number icon in the upper right corner is now 1
@@ -1017,18 +1037,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">to </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Cart.aspx
 5. click "Checkout"
@@ -1039,8 +1059,8 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>- All the steps went through smoothly
 - The price added up correctly ($20)
@@ -1048,18 +1068,18 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">e </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Member/Succeed.asp
 - The cart item count is still 1, have to be cleared manually</t>
@@ -1102,17 +1122,17 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Return to the view: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Member/Products.aspx</t>
     </r>
@@ -1190,18 +1210,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Adding "Fry pan" and "Moong Dal" to cart
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Cart.aspx</t>
     </r>
@@ -1237,18 +1257,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Adding "Fry pan" and "Moong Dal" to cart
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Cart.aspx</t>
     </r>
@@ -1387,17 +1407,17 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. The "makeadmin" account can access </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Default.aspx</t>
     </r>
@@ -1411,18 +1431,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Accounts.aspx</t>
     </r>
@@ -1445,18 +1465,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Accounts.aspx</t>
     </r>
@@ -1493,18 +1513,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Accounts.aspx</t>
     </r>
@@ -1524,18 +1544,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin, "Tung" here
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Accounts.aspx</t>
     </r>
@@ -1556,18 +1576,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Accounts.aspx</t>
     </r>
@@ -1630,20 +1650,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Orders.aspx</t>
     </r>
@@ -1665,20 +1685,20 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Orders.aspx</t>
     </r>
@@ -1686,8 +1706,8 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Search all orders made by your current account
 2. Delete them all by changing the status clolumn to "Delete"
@@ -1695,10 +1715,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Member/MyOrders.aspx</t>
     </r>
@@ -1717,18 +1737,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Orders.aspx</t>
     </r>
@@ -1751,18 +1771,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Orders.aspx</t>
     </r>
@@ -1770,8 +1790,8 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Search all orders made by your current account
 2. Delete them all by changing the status clolumn to "Waiting"
@@ -1779,10 +1799,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Member/MyOrders.aspx</t>
     </r>
@@ -1800,18 +1820,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Orders.aspx</t>
     </r>
@@ -1819,8 +1839,8 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Search all orders made by your current account
 2. Delete them all by changing the status clolumn to "Processing"
@@ -1828,10 +1848,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Member/MyOrders.aspx</t>
     </r>
@@ -1849,18 +1869,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Orders.aspx</t>
     </r>
@@ -1868,8 +1888,8 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Search all orders made by your current account
 2. Delete them all by changing the status clolumn to "Delivering"
@@ -1877,10 +1897,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Member/MyOrders.aspx</t>
     </r>
@@ -1898,18 +1918,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Orders.aspx</t>
     </r>
@@ -1917,8 +1937,8 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Search all orders made by your current account
 2. Delete them all by changing the status clolumn to "Done"
@@ -1926,10 +1946,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Member/MyOrders.aspx</t>
     </r>
@@ -1947,18 +1967,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Orders.aspx</t>
     </r>
@@ -1966,8 +1986,8 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Search all orders made by your current account
 2. Delete them all by changing the status clolumn to "Cancel"
@@ -1975,10 +1995,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Member/MyOrders.aspx</t>
     </r>
@@ -1996,18 +2016,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Logged in as admin
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Orders.aspx</t>
     </r>
@@ -2028,8 +2048,8 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Completed an Order in which a product quantity is negative
 2. Logged in as admin
@@ -2037,10 +2057,10 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Admin/Orders.aspx</t>
     </r>
@@ -2345,18 +2365,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Same as above
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Single.aspx?Id=1</t>
     </r>
@@ -2364,18 +2384,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Configure 10 HTTP requests for each thread
 2. Each has a different "Id" (1..10) in </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Single.aspx?Id=1</t>
     </r>
@@ -2722,18 +2742,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Adding 1000 "Channa" products with unit price "$80,99" to cart
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Cart.aspx</t>
     </r>
@@ -2756,18 +2776,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1. Adding 1000 "Channa" products with unit price "$80,99" to cart
 2. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>http://mymarket-2.apphb.com/Cart.aspx</t>
     </r>
@@ -2787,43 +2807,43 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>1. Enter User Name : " "
 2.Enter Password : "</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>abcd</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>"
 3. Click "</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Ok</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>" button</t>
     </r>
@@ -2851,25 +2871,25 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>1. Enter User Name : "</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>abcd</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>"
 2. Enter Password : " "
@@ -2877,17 +2897,17 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Ok</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>" button</t>
     </r>
@@ -2904,9 +2924,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>1. Enter User Name : " "
 2. Enter Password : " "
@@ -2914,17 +2934,17 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Ok</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>" button</t>
     </r>
@@ -2938,43 +2958,43 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>1. Enter User Name : " "
 2.Enter Password : "</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>abcd</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>"
 3. Click "</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Ok</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>" button</t>
     </r>
@@ -2985,25 +3005,25 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>1. Enter User Name : "</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>abcd</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve"> "
 2. Enter Password : " "
@@ -3011,17 +3031,17 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Ok</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>" button</t>
     </r>
@@ -3032,9 +3052,9 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>1. Enter User Name : " "
 2. Enter Password : " "
@@ -3042,102 +3062,293 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>Ok</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>" button</t>
     </r>
+  </si>
+  <si>
+    <t>Go to product page from home page by "Shop Now"</t>
+  </si>
+  <si>
+    <t>Choose a product category from home page</t>
+  </si>
+  <si>
+    <t>1. Standing at Homepage, click "Groceries" =&gt; "All Groceries" on the top menu bar</t>
+  </si>
+  <si>
+    <t>1. Redirected to Product Listing page, with only groceries products displayed</t>
+  </si>
+  <si>
+    <t>Choose a product sub-category from home page</t>
+  </si>
+  <si>
+    <t>1. Standing at Homepage, click "Groceries" =&gt; "Almonds" on the top menu bar</t>
+  </si>
+  <si>
+    <t>1. Redirected to Product Listing page, with only almonds products displayed</t>
+  </si>
+  <si>
+    <t>Choose a product category from product page by sidebar</t>
+  </si>
+  <si>
+    <t>1. Standing at product page, click "Groceries" on the sidebar</t>
+  </si>
+  <si>
+    <t>1. Product page now only displays groceries products</t>
+  </si>
+  <si>
+    <t>Choose a product sub-category from product page by sidebar</t>
+  </si>
+  <si>
+    <t>1. Standing at product page, click "Almonds" on the sidebar</t>
+  </si>
+  <si>
+    <t>1. Product page now only displays almonds products</t>
+  </si>
+  <si>
+    <t>Choose a product category from product page by header</t>
+  </si>
+  <si>
+    <t>1. Standing at product page, click "Groceries" =&gt; "All Groceries" on the top menu bar</t>
+  </si>
+  <si>
+    <t>Choose a product sub-category from product page by header</t>
+  </si>
+  <si>
+    <t>1. Standing at product page, click "Groceries" =&gt; "Almonds" on the top menu bar</t>
+  </si>
+  <si>
+    <t>Choose a second product category after choosing a first one</t>
+  </si>
+  <si>
+    <t>1. Standing at product page, click "Groceries" on the sidebar 2. Click "Almonds" on the sidebar</t>
+  </si>
+  <si>
+    <t>1. Product page now only displays groceries products 2. Product page now only displays almond products</t>
+  </si>
+  <si>
+    <t>Choose a product by left clicking on it</t>
+  </si>
+  <si>
+    <t>1. Product detail of the "Fry pan" product is displayed</t>
+  </si>
+  <si>
+    <t>Choose a product by Ctrl + left clicking on it</t>
+  </si>
+  <si>
+    <t>1. Standing at product page, left click on the "Fry pan" product</t>
+  </si>
+  <si>
+    <t>1. Standing at product page, ctrl + left click on the "Fry pan" product</t>
+  </si>
+  <si>
+    <t>1. Product detail of the "Fry pan" product is displayed in another tab</t>
+  </si>
+  <si>
+    <t>Not logged in. Has account with u=abcd1234, p=Aa123456. http://mymarket-2.apphb.com/Login.aspx</t>
+  </si>
+  <si>
+    <t>Log in normally</t>
+  </si>
+  <si>
+    <t>1. Is logged in</t>
+  </si>
+  <si>
+    <t>1. Enter "abcd1234" for username. 2. Enter "Aa123456@" for password 3. Click "Log in"</t>
+  </si>
+  <si>
+    <t>All letters in username is uppercase</t>
+  </si>
+  <si>
+    <t>1. Enter "ABCD1234" for username. 2. Enter "Aa123456@" for password 3. Click "Log in"</t>
+  </si>
+  <si>
+    <t>1. Not logged in</t>
+  </si>
+  <si>
+    <t>Is logged in</t>
+  </si>
+  <si>
+    <t>The letters in username is mixed case</t>
+  </si>
+  <si>
+    <t>1. Enter "aBcD1234" for username. 2. Enter "Aa123456@" for password 3. Click "Log in"</t>
+  </si>
+  <si>
+    <t>Username has space at the end</t>
+  </si>
+  <si>
+    <t>1. Enter "abcd1234 " for username. 2. Enter "Aa123456@" for password 3. Click "Log in"</t>
+  </si>
+  <si>
+    <t>Username has space at the start</t>
+  </si>
+  <si>
+    <t>1. Enter " abcd1234" for username. 2. Enter "Aa123456@" for password 3. Click "Log in"</t>
+  </si>
+  <si>
+    <t>All letters in password is uppercase</t>
+  </si>
+  <si>
+    <t>All letters in password is lowercase</t>
+  </si>
+  <si>
+    <t>Password has space at the end</t>
+  </si>
+  <si>
+    <t>Password has space at the start</t>
+  </si>
+  <si>
+    <t>1. Enter "abcd1234" for username. 2. Enter "AA123456@" for password 3. Click "Log in"</t>
+  </si>
+  <si>
+    <t>1. Enter "abcd1234" for username. 2. Enter "aa123456@" for password 3. Click "Log in"</t>
+  </si>
+  <si>
+    <t>1. Enter "abcd1234" for username. 2. Enter "Aa123456@ " for password 3. Click "Log in"</t>
+  </si>
+  <si>
+    <t>1. Enter "abcd1234" for username. 2. Enter " Aa123456@" for password 3. Click "Log in"</t>
+  </si>
+  <si>
+    <t>Empty username</t>
+  </si>
+  <si>
+    <t>1. Enter "" for username. 2. Enter "Aa123456@" for password 3. Click "Log in"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="20">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3145,7 +3356,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3167,125 +3378,118 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+  <cellXfs count="37">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3475,32 +3679,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F60" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="72.29"/>
-    <col customWidth="1" min="3" max="3" width="85.29"/>
-    <col customWidth="1" min="4" max="4" width="97.57"/>
-    <col customWidth="1" min="5" max="5" width="99.71"/>
-    <col customWidth="1" min="6" max="6" width="73.43"/>
+    <col min="2" max="2" width="72.28515625" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" customWidth="1"/>
+    <col min="4" max="4" width="97.5703125" customWidth="1"/>
+    <col min="5" max="5" width="99.7109375" customWidth="1"/>
+    <col min="6" max="6" width="73.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3529,7 +3736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" collapsed="1">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -3546,133 +3753,253 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:15" ht="15" outlineLevel="1">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:15" ht="15" outlineLevel="1">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>664</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:15" ht="15" outlineLevel="1">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:15" ht="15" outlineLevel="1">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:15" ht="15" outlineLevel="1">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="35" t="s">
+        <v>672</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>674</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:15" ht="15" outlineLevel="1">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>676</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>31</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:15" ht="15" outlineLevel="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>674</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" hidden="1" outlineLevel="1">
+    <row r="10" spans="1:15" ht="15" outlineLevel="1">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="B10" s="35" t="s">
+        <v>679</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>31</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" hidden="1" outlineLevel="1">
+    <row r="11" spans="1:15" ht="15" outlineLevel="1">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="34" t="s">
+        <v>682</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>685</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>683</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" hidden="1" outlineLevel="1">
+    <row r="12" spans="1:15" ht="15" outlineLevel="1">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="B12" s="34" t="s">
+        <v>684</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>686</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>687</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>31</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
@@ -3682,7 +4009,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" collapsed="1">
+    <row r="13" spans="1:15" ht="15">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3699,7 +4026,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" hidden="1" outlineLevel="1">
+    <row r="14" spans="1:15" ht="15" outlineLevel="1">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -3724,7 +4051,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" hidden="1" outlineLevel="1">
+    <row r="15" spans="1:15" ht="15" outlineLevel="1">
       <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
@@ -3749,7 +4076,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" hidden="1" outlineLevel="1">
+    <row r="16" spans="1:15" ht="15" outlineLevel="1">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -3775,7 +4102,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" hidden="1" outlineLevel="1">
+    <row r="17" spans="1:15" ht="15" outlineLevel="1">
       <c r="A17" s="6" t="s">
         <v>40</v>
       </c>
@@ -3801,7 +4128,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" hidden="1" outlineLevel="1">
+    <row r="18" spans="1:15" ht="15" outlineLevel="1">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -3827,7 +4154,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" hidden="1" outlineLevel="1">
+    <row r="19" spans="1:15" ht="15" outlineLevel="1">
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
@@ -3852,7 +4179,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" hidden="1" outlineLevel="1">
+    <row r="20" spans="1:15" ht="15" outlineLevel="1">
       <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
@@ -3877,7 +4204,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" hidden="1" outlineLevel="1">
+    <row r="21" spans="1:15" ht="15" outlineLevel="1">
       <c r="A21" s="6" t="s">
         <v>57</v>
       </c>
@@ -3902,7 +4229,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" hidden="1" outlineLevel="1">
+    <row r="22" spans="1:15" ht="15" outlineLevel="1">
       <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
@@ -3927,7 +4254,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" hidden="1" outlineLevel="1">
+    <row r="23" spans="1:15" ht="15" outlineLevel="1">
       <c r="A23" s="6" t="s">
         <v>66</v>
       </c>
@@ -3958,7 +4285,7 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" collapsed="1">
+    <row r="24" spans="1:15" ht="15">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -3975,7 +4302,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" hidden="1" outlineLevel="1">
+    <row r="25" spans="1:15" ht="15" outlineLevel="1">
       <c r="A25" s="4" t="s">
         <v>73</v>
       </c>
@@ -3988,7 +4315,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" hidden="1" outlineLevel="1">
+    <row r="26" spans="1:15" ht="15" outlineLevel="1">
       <c r="A26" s="6" t="s">
         <v>74</v>
       </c>
@@ -4001,7 +4328,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" hidden="1" outlineLevel="1">
+    <row r="27" spans="1:15" ht="15" outlineLevel="1">
       <c r="A27" s="4" t="s">
         <v>75</v>
       </c>
@@ -4014,7 +4341,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" hidden="1" outlineLevel="1">
+    <row r="28" spans="1:15" ht="15" outlineLevel="1">
       <c r="A28" s="6" t="s">
         <v>76</v>
       </c>
@@ -4027,7 +4354,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" hidden="1" outlineLevel="1">
+    <row r="29" spans="1:15" ht="15" outlineLevel="1">
       <c r="A29" s="4" t="s">
         <v>77</v>
       </c>
@@ -4040,7 +4367,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" hidden="1" outlineLevel="1">
+    <row r="30" spans="1:15" ht="15" outlineLevel="1">
       <c r="A30" s="6" t="s">
         <v>78</v>
       </c>
@@ -4053,7 +4380,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" hidden="1" outlineLevel="1">
+    <row r="31" spans="1:15" ht="15" outlineLevel="1">
       <c r="A31" s="4" t="s">
         <v>79</v>
       </c>
@@ -4066,7 +4393,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" hidden="1" outlineLevel="1">
+    <row r="32" spans="1:15" ht="15" outlineLevel="1">
       <c r="A32" s="6" t="s">
         <v>80</v>
       </c>
@@ -4079,7 +4406,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" hidden="1" outlineLevel="1">
+    <row r="33" spans="1:15" ht="15" outlineLevel="1">
       <c r="A33" s="4" t="s">
         <v>81</v>
       </c>
@@ -4092,7 +4419,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" hidden="1" outlineLevel="1">
+    <row r="34" spans="1:15" ht="15" outlineLevel="1">
       <c r="A34" s="6" t="s">
         <v>81</v>
       </c>
@@ -4105,7 +4432,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" hidden="1" outlineLevel="1">
+    <row r="35" spans="1:15" ht="15" outlineLevel="1">
       <c r="A35" s="4" t="s">
         <v>82</v>
       </c>
@@ -4124,7 +4451,7 @@
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
     </row>
-    <row r="36" collapsed="1">
+    <row r="36" spans="1:15" ht="15">
       <c r="A36" s="2" t="s">
         <v>83</v>
       </c>
@@ -4141,7 +4468,7 @@
       </c>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" hidden="1" outlineLevel="1">
+    <row r="37" spans="1:15" ht="15" outlineLevel="1">
       <c r="A37" s="4" t="s">
         <v>85</v>
       </c>
@@ -4166,7 +4493,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" hidden="1" outlineLevel="1">
+    <row r="38" spans="1:15" ht="15" outlineLevel="1">
       <c r="A38" s="6" t="s">
         <v>90</v>
       </c>
@@ -4191,7 +4518,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" hidden="1" outlineLevel="1">
+    <row r="39" spans="1:15" ht="15" outlineLevel="1">
       <c r="A39" s="4" t="s">
         <v>94</v>
       </c>
@@ -4217,7 +4544,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" hidden="1" outlineLevel="1">
+    <row r="40" spans="1:15" ht="15" outlineLevel="1">
       <c r="A40" s="6" t="s">
         <v>98</v>
       </c>
@@ -4243,7 +4570,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" hidden="1" outlineLevel="1">
+    <row r="41" spans="1:15" ht="15" outlineLevel="1">
       <c r="A41" s="4" t="s">
         <v>103</v>
       </c>
@@ -4268,7 +4595,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" hidden="1" outlineLevel="1">
+    <row r="42" spans="1:15" ht="15" outlineLevel="1">
       <c r="A42" s="6" t="s">
         <v>109</v>
       </c>
@@ -4293,7 +4620,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" hidden="1" outlineLevel="1">
+    <row r="43" spans="1:15" ht="15" outlineLevel="1">
       <c r="A43" s="4" t="s">
         <v>111</v>
       </c>
@@ -4319,7 +4646,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" hidden="1" outlineLevel="1">
+    <row r="44" spans="1:15" ht="15" outlineLevel="1">
       <c r="A44" s="6" t="s">
         <v>116</v>
       </c>
@@ -4345,7 +4672,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" hidden="1" outlineLevel="1">
+    <row r="45" spans="1:15" ht="15" outlineLevel="1">
       <c r="A45" s="4" t="s">
         <v>120</v>
       </c>
@@ -4371,7 +4698,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" hidden="1" outlineLevel="1">
+    <row r="46" spans="1:15" ht="15" outlineLevel="1">
       <c r="A46" s="6" t="s">
         <v>124</v>
       </c>
@@ -4403,7 +4730,7 @@
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
     </row>
-    <row r="47" collapsed="1">
+    <row r="47" spans="1:15" ht="15">
       <c r="A47" s="2" t="s">
         <v>128</v>
       </c>
@@ -4420,7 +4747,7 @@
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" hidden="1" outlineLevel="1">
+    <row r="48" spans="1:15" ht="15" outlineLevel="1">
       <c r="A48" s="4" t="s">
         <v>130</v>
       </c>
@@ -4433,7 +4760,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" hidden="1" outlineLevel="1">
+    <row r="49" spans="1:15" ht="15" outlineLevel="1">
       <c r="A49" s="6" t="s">
         <v>131</v>
       </c>
@@ -4446,7 +4773,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" hidden="1" outlineLevel="1">
+    <row r="50" spans="1:15" ht="15" outlineLevel="1">
       <c r="A50" s="4" t="s">
         <v>132</v>
       </c>
@@ -4459,7 +4786,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" hidden="1" outlineLevel="1">
+    <row r="51" spans="1:15" ht="15" outlineLevel="1">
       <c r="A51" s="6" t="s">
         <v>133</v>
       </c>
@@ -4472,7 +4799,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" hidden="1" outlineLevel="1">
+    <row r="52" spans="1:15" ht="15" outlineLevel="1">
       <c r="A52" s="4" t="s">
         <v>134</v>
       </c>
@@ -4485,7 +4812,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" hidden="1" outlineLevel="1">
+    <row r="53" spans="1:15" ht="15" outlineLevel="1">
       <c r="A53" s="6" t="s">
         <v>135</v>
       </c>
@@ -4498,7 +4825,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" hidden="1" outlineLevel="1">
+    <row r="54" spans="1:15" ht="15" outlineLevel="1">
       <c r="A54" s="4" t="s">
         <v>136</v>
       </c>
@@ -4511,7 +4838,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" hidden="1" outlineLevel="1">
+    <row r="55" spans="1:15" ht="15" outlineLevel="1">
       <c r="A55" s="6" t="s">
         <v>137</v>
       </c>
@@ -4524,7 +4851,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" hidden="1" outlineLevel="1">
+    <row r="56" spans="1:15" ht="15" outlineLevel="1">
       <c r="A56" s="4" t="s">
         <v>138</v>
       </c>
@@ -4537,7 +4864,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" hidden="1" outlineLevel="1">
+    <row r="57" spans="1:15" ht="15" outlineLevel="1">
       <c r="A57" s="6" t="s">
         <v>139</v>
       </c>
@@ -4556,7 +4883,7 @@
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
     </row>
-    <row r="58" collapsed="1">
+    <row r="58" spans="1:15" ht="15">
       <c r="A58" s="2" t="s">
         <v>140</v>
       </c>
@@ -4573,7 +4900,7 @@
       </c>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" hidden="1" outlineLevel="1">
+    <row r="59" spans="1:15" ht="15" outlineLevel="1">
       <c r="A59" s="4" t="s">
         <v>142</v>
       </c>
@@ -4598,7 +4925,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" hidden="1" outlineLevel="1">
+    <row r="60" spans="1:15" ht="15" outlineLevel="1">
       <c r="A60" s="6" t="s">
         <v>147</v>
       </c>
@@ -4624,7 +4951,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" hidden="1" outlineLevel="1">
+    <row r="61" spans="1:15" ht="15" outlineLevel="1">
       <c r="A61" s="4" t="s">
         <v>151</v>
       </c>
@@ -4650,7 +4977,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" hidden="1" outlineLevel="1">
+    <row r="62" spans="1:15" ht="15" outlineLevel="1">
       <c r="A62" s="6" t="s">
         <v>155</v>
       </c>
@@ -4675,7 +5002,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" hidden="1" outlineLevel="1">
+    <row r="63" spans="1:15" ht="15" outlineLevel="1">
       <c r="A63" s="4" t="s">
         <v>160</v>
       </c>
@@ -4700,7 +5027,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" hidden="1" outlineLevel="1">
+    <row r="64" spans="1:15" ht="15" outlineLevel="1">
       <c r="A64" s="6" t="s">
         <v>165</v>
       </c>
@@ -4725,7 +5052,7 @@
       <c r="H64" s="6"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" hidden="1" outlineLevel="1">
+    <row r="65" spans="1:15" ht="15" outlineLevel="1">
       <c r="A65" s="4" t="s">
         <v>168</v>
       </c>
@@ -4751,7 +5078,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" hidden="1" outlineLevel="1">
+    <row r="66" spans="1:15" ht="15" outlineLevel="1">
       <c r="A66" s="6" t="s">
         <v>172</v>
       </c>
@@ -4777,7 +5104,7 @@
       <c r="H66" s="6"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" hidden="1" outlineLevel="1">
+    <row r="67" spans="1:15" ht="15" outlineLevel="1">
       <c r="A67" s="4" t="s">
         <v>176</v>
       </c>
@@ -4802,7 +5129,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="5"/>
     </row>
-    <row r="68" hidden="1" outlineLevel="1">
+    <row r="68" spans="1:15" ht="15" outlineLevel="1">
       <c r="A68" s="6" t="s">
         <v>180</v>
       </c>
@@ -4833,7 +5160,7 @@
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
     </row>
-    <row r="69" collapsed="1">
+    <row r="69" spans="1:15" ht="15">
       <c r="A69" s="2" t="s">
         <v>184</v>
       </c>
@@ -4850,133 +5177,253 @@
       </c>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" hidden="1" outlineLevel="1">
+    <row r="70" spans="1:15" ht="15" outlineLevel="1">
       <c r="A70" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
+      <c r="B70" s="34" t="s">
+        <v>689</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>688</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>691</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>690</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="I70" s="5"/>
     </row>
-    <row r="71" hidden="1" outlineLevel="1">
+    <row r="71" spans="1:15" ht="15" outlineLevel="1">
       <c r="A71" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
+      <c r="B71" s="35" t="s">
+        <v>692</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>693</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="F71" s="35" t="s">
+        <v>695</v>
+      </c>
+      <c r="G71" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="H71" s="6"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" hidden="1" outlineLevel="1">
+    <row r="72" spans="1:15" ht="15" outlineLevel="1">
       <c r="A72" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
+      <c r="B72" s="35" t="s">
+        <v>696</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="F72" s="35" t="s">
+        <v>695</v>
+      </c>
+      <c r="G72" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="H72" s="4"/>
       <c r="I72" s="5"/>
     </row>
-    <row r="73" hidden="1" outlineLevel="1">
+    <row r="73" spans="1:15" ht="15" outlineLevel="1">
       <c r="A73" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
+      <c r="B73" s="35" t="s">
+        <v>698</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>699</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="F73" s="35" t="s">
+        <v>695</v>
+      </c>
+      <c r="G73" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="H73" s="6"/>
       <c r="I73" s="7"/>
     </row>
-    <row r="74" hidden="1" outlineLevel="1">
+    <row r="74" spans="1:15" ht="15" outlineLevel="1">
       <c r="A74" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
+      <c r="B74" s="35" t="s">
+        <v>700</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>701</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="F74" s="35" t="s">
+        <v>695</v>
+      </c>
+      <c r="G74" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="H74" s="4"/>
       <c r="I74" s="5"/>
     </row>
-    <row r="75" hidden="1" outlineLevel="1">
+    <row r="75" spans="1:15" ht="15" outlineLevel="1">
       <c r="A75" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
+      <c r="B75" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>706</v>
+      </c>
+      <c r="E75" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="H75" s="6"/>
       <c r="I75" s="7"/>
     </row>
-    <row r="76" hidden="1" outlineLevel="1">
+    <row r="76" spans="1:15" ht="15" outlineLevel="1">
       <c r="A76" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
+      <c r="B76" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="E76" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G76" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="5"/>
     </row>
-    <row r="77" hidden="1" outlineLevel="1">
+    <row r="77" spans="1:15" ht="15" outlineLevel="1">
       <c r="A77" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="B77" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="E77" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="H77" s="6"/>
       <c r="I77" s="7"/>
     </row>
-    <row r="78" hidden="1" outlineLevel="1">
+    <row r="78" spans="1:15" ht="15" outlineLevel="1">
       <c r="A78" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
+      <c r="B78" s="35" t="s">
+        <v>705</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>709</v>
+      </c>
+      <c r="E78" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="F78" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" s="34" t="s">
+        <v>31</v>
+      </c>
       <c r="H78" s="4"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" hidden="1" outlineLevel="1">
+    <row r="79" spans="1:15" ht="15" outlineLevel="1">
       <c r="A79" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="B79" s="35" t="s">
+        <v>710</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>711</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G79" s="35" t="s">
+        <v>31</v>
+      </c>
       <c r="H79" s="6"/>
       <c r="I79" s="7"/>
       <c r="J79" s="8"/>
@@ -4986,7 +5433,7 @@
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:15" ht="15">
       <c r="A80" s="2" t="s">
         <v>196</v>
       </c>
@@ -5003,7 +5450,7 @@
       </c>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" outlineLevel="1">
+    <row r="81" spans="1:9" ht="15" outlineLevel="1">
       <c r="A81" s="4" t="s">
         <v>198</v>
       </c>
@@ -5028,7 +5475,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" outlineLevel="1">
+    <row r="82" spans="1:9" ht="15" outlineLevel="1">
       <c r="A82" s="6" t="s">
         <v>204</v>
       </c>
@@ -5054,7 +5501,7 @@
       <c r="H82" s="6"/>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" outlineLevel="1">
+    <row r="83" spans="1:9" ht="15" outlineLevel="1">
       <c r="A83" s="4" t="s">
         <v>209</v>
       </c>
@@ -5079,7 +5526,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" outlineLevel="1">
+    <row r="84" spans="1:9" ht="15" outlineLevel="1">
       <c r="A84" s="6" t="s">
         <v>215</v>
       </c>
@@ -5107,7 +5554,7 @@
       <c r="H84" s="6"/>
       <c r="I84" s="7"/>
     </row>
-    <row r="85" outlineLevel="1">
+    <row r="85" spans="1:9" ht="15" outlineLevel="1">
       <c r="A85" s="4" t="s">
         <v>219</v>
       </c>
@@ -5132,7 +5579,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" outlineLevel="1">
+    <row r="86" spans="1:9" ht="15" outlineLevel="1">
       <c r="A86" s="6" t="s">
         <v>224</v>
       </c>
@@ -5157,7 +5604,7 @@
       <c r="H86" s="6"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" outlineLevel="1">
+    <row r="87" spans="1:9" ht="15" outlineLevel="1">
       <c r="A87" s="4" t="s">
         <v>229</v>
       </c>
@@ -5182,7 +5629,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" outlineLevel="1">
+    <row r="88" spans="1:9" ht="15" outlineLevel="1">
       <c r="A88" s="6" t="s">
         <v>233</v>
       </c>
@@ -5207,7 +5654,7 @@
       <c r="H88" s="6"/>
       <c r="I88" s="7"/>
     </row>
-    <row r="89" outlineLevel="1">
+    <row r="89" spans="1:9" ht="15" outlineLevel="1">
       <c r="A89" s="4" t="s">
         <v>238</v>
       </c>
@@ -5232,7 +5679,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" outlineLevel="1">
+    <row r="90" spans="1:9" ht="15" outlineLevel="1">
       <c r="A90" s="6" t="s">
         <v>240</v>
       </c>
@@ -5257,7 +5704,7 @@
       <c r="H90" s="6"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" collapsed="1">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="2" t="s">
         <v>242</v>
       </c>
@@ -5274,7 +5721,7 @@
       </c>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" hidden="1" outlineLevel="1">
+    <row r="92" spans="1:9" ht="15" outlineLevel="1">
       <c r="A92" s="4" t="s">
         <v>244</v>
       </c>
@@ -5287,7 +5734,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" hidden="1" outlineLevel="1">
+    <row r="93" spans="1:9" ht="15" outlineLevel="1">
       <c r="A93" s="6" t="s">
         <v>245</v>
       </c>
@@ -5300,7 +5747,7 @@
       <c r="H93" s="6"/>
       <c r="I93" s="7"/>
     </row>
-    <row r="94" hidden="1" outlineLevel="1">
+    <row r="94" spans="1:9" ht="15" outlineLevel="1">
       <c r="A94" s="4" t="s">
         <v>246</v>
       </c>
@@ -5313,7 +5760,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" hidden="1" outlineLevel="1">
+    <row r="95" spans="1:9" ht="15" outlineLevel="1">
       <c r="A95" s="6" t="s">
         <v>247</v>
       </c>
@@ -5326,7 +5773,7 @@
       <c r="H95" s="6"/>
       <c r="I95" s="7"/>
     </row>
-    <row r="96" hidden="1" outlineLevel="1">
+    <row r="96" spans="1:9" ht="15" outlineLevel="1">
       <c r="A96" s="4" t="s">
         <v>248</v>
       </c>
@@ -5339,7 +5786,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" hidden="1" outlineLevel="1">
+    <row r="97" spans="1:15" ht="15" outlineLevel="1">
       <c r="A97" s="6" t="s">
         <v>249</v>
       </c>
@@ -5352,7 +5799,7 @@
       <c r="H97" s="6"/>
       <c r="I97" s="7"/>
     </row>
-    <row r="98" hidden="1" outlineLevel="1">
+    <row r="98" spans="1:15" ht="15" outlineLevel="1">
       <c r="A98" s="4" t="s">
         <v>250</v>
       </c>
@@ -5365,7 +5812,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" hidden="1" outlineLevel="1">
+    <row r="99" spans="1:15" ht="15" outlineLevel="1">
       <c r="A99" s="6" t="s">
         <v>251</v>
       </c>
@@ -5378,7 +5825,7 @@
       <c r="H99" s="6"/>
       <c r="I99" s="7"/>
     </row>
-    <row r="100" hidden="1" outlineLevel="1">
+    <row r="100" spans="1:15" ht="15" outlineLevel="1">
       <c r="A100" s="4" t="s">
         <v>252</v>
       </c>
@@ -5391,7 +5838,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" hidden="1" outlineLevel="1">
+    <row r="101" spans="1:15" ht="15" outlineLevel="1">
       <c r="A101" s="6" t="s">
         <v>253</v>
       </c>
@@ -5410,7 +5857,7 @@
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
     </row>
-    <row r="102" collapsed="1">
+    <row r="102" spans="1:15" ht="15">
       <c r="A102" s="2" t="s">
         <v>254</v>
       </c>
@@ -5427,7 +5874,7 @@
       </c>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" hidden="1" outlineLevel="1">
+    <row r="103" spans="1:15" ht="15" outlineLevel="1">
       <c r="A103" s="4" t="s">
         <v>256</v>
       </c>
@@ -5452,7 +5899,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="5"/>
     </row>
-    <row r="104" hidden="1" outlineLevel="1">
+    <row r="104" spans="1:15" ht="15" outlineLevel="1">
       <c r="A104" s="6" t="s">
         <v>261</v>
       </c>
@@ -5477,7 +5924,7 @@
       <c r="H104" s="6"/>
       <c r="I104" s="7"/>
     </row>
-    <row r="105" hidden="1" outlineLevel="1">
+    <row r="105" spans="1:15" ht="15" outlineLevel="1">
       <c r="A105" s="4" t="s">
         <v>265</v>
       </c>
@@ -5502,7 +5949,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="5"/>
     </row>
-    <row r="106" hidden="1" outlineLevel="1">
+    <row r="106" spans="1:15" ht="15" outlineLevel="1">
       <c r="A106" s="6" t="s">
         <v>271</v>
       </c>
@@ -5527,7 +5974,7 @@
       <c r="H106" s="6"/>
       <c r="I106" s="7"/>
     </row>
-    <row r="107" hidden="1" outlineLevel="1">
+    <row r="107" spans="1:15" ht="15" outlineLevel="1">
       <c r="A107" s="4" t="s">
         <v>276</v>
       </c>
@@ -5553,7 +6000,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="5"/>
     </row>
-    <row r="108" hidden="1" outlineLevel="1">
+    <row r="108" spans="1:15" ht="15" outlineLevel="1">
       <c r="A108" s="6" t="s">
         <v>280</v>
       </c>
@@ -5561,7 +6008,7 @@
         <v>281</v>
       </c>
       <c r="C108" s="7" t="str">
-        <f t="shared" ref="C108:C109" si="1">A103</f>
+        <f t="shared" ref="C108:C109" si="0">A103</f>
         <v>10 - 001</v>
       </c>
       <c r="D108" s="6" t="s">
@@ -5579,7 +6026,7 @@
       <c r="H108" s="6"/>
       <c r="I108" s="7"/>
     </row>
-    <row r="109" hidden="1" outlineLevel="1">
+    <row r="109" spans="1:15" ht="15" outlineLevel="1">
       <c r="A109" s="4" t="s">
         <v>285</v>
       </c>
@@ -5587,7 +6034,7 @@
         <v>286</v>
       </c>
       <c r="C109" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10 - 002</v>
       </c>
       <c r="D109" s="4" t="s">
@@ -5605,7 +6052,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="5"/>
     </row>
-    <row r="110" hidden="1" outlineLevel="1">
+    <row r="110" spans="1:15" ht="15" outlineLevel="1">
       <c r="A110" s="6" t="s">
         <v>289</v>
       </c>
@@ -5630,7 +6077,7 @@
       <c r="H110" s="6"/>
       <c r="I110" s="7"/>
     </row>
-    <row r="111" hidden="1" outlineLevel="1">
+    <row r="111" spans="1:15" ht="15" outlineLevel="1">
       <c r="A111" s="4" t="s">
         <v>295</v>
       </c>
@@ -5655,7 +6102,7 @@
       <c r="H111" s="4"/>
       <c r="I111" s="5"/>
     </row>
-    <row r="112" hidden="1" outlineLevel="1">
+    <row r="112" spans="1:15" ht="15" outlineLevel="1">
       <c r="A112" s="6" t="s">
         <v>299</v>
       </c>
@@ -5686,7 +6133,7 @@
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
     </row>
-    <row r="113" collapsed="1">
+    <row r="113" spans="1:15" ht="15" collapsed="1">
       <c r="A113" s="2" t="s">
         <v>305</v>
       </c>
@@ -5703,7 +6150,7 @@
       </c>
       <c r="I113" s="2"/>
     </row>
-    <row r="114" hidden="1" outlineLevel="1">
+    <row r="114" spans="1:15" ht="15" outlineLevel="1">
       <c r="A114" s="4" t="s">
         <v>306</v>
       </c>
@@ -5716,7 +6163,7 @@
       <c r="H114" s="4"/>
       <c r="I114" s="5"/>
     </row>
-    <row r="115" hidden="1" outlineLevel="1">
+    <row r="115" spans="1:15" ht="15" outlineLevel="1">
       <c r="A115" s="6" t="s">
         <v>307</v>
       </c>
@@ -5729,7 +6176,7 @@
       <c r="H115" s="6"/>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" hidden="1" outlineLevel="1">
+    <row r="116" spans="1:15" ht="15" outlineLevel="1">
       <c r="A116" s="4" t="s">
         <v>308</v>
       </c>
@@ -5742,7 +6189,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="5"/>
     </row>
-    <row r="117" hidden="1" outlineLevel="1">
+    <row r="117" spans="1:15" ht="15" outlineLevel="1">
       <c r="A117" s="6" t="s">
         <v>309</v>
       </c>
@@ -5755,7 +6202,7 @@
       <c r="H117" s="6"/>
       <c r="I117" s="7"/>
     </row>
-    <row r="118" hidden="1" outlineLevel="1">
+    <row r="118" spans="1:15" ht="15" outlineLevel="1">
       <c r="A118" s="4" t="s">
         <v>310</v>
       </c>
@@ -5768,7 +6215,7 @@
       <c r="H118" s="4"/>
       <c r="I118" s="5"/>
     </row>
-    <row r="119" hidden="1" outlineLevel="1">
+    <row r="119" spans="1:15" ht="15" outlineLevel="1">
       <c r="A119" s="6" t="s">
         <v>311</v>
       </c>
@@ -5781,7 +6228,7 @@
       <c r="H119" s="6"/>
       <c r="I119" s="7"/>
     </row>
-    <row r="120" hidden="1" outlineLevel="1">
+    <row r="120" spans="1:15" ht="15" outlineLevel="1">
       <c r="A120" s="4" t="s">
         <v>312</v>
       </c>
@@ -5794,7 +6241,7 @@
       <c r="H120" s="4"/>
       <c r="I120" s="5"/>
     </row>
-    <row r="121" hidden="1" outlineLevel="1">
+    <row r="121" spans="1:15" ht="15" outlineLevel="1">
       <c r="A121" s="6" t="s">
         <v>313</v>
       </c>
@@ -5807,7 +6254,7 @@
       <c r="H121" s="6"/>
       <c r="I121" s="7"/>
     </row>
-    <row r="122" hidden="1" outlineLevel="1">
+    <row r="122" spans="1:15" ht="15" outlineLevel="1">
       <c r="A122" s="4" t="s">
         <v>314</v>
       </c>
@@ -5820,7 +6267,7 @@
       <c r="H122" s="4"/>
       <c r="I122" s="5"/>
     </row>
-    <row r="123" hidden="1" outlineLevel="1">
+    <row r="123" spans="1:15" ht="15" outlineLevel="1">
       <c r="A123" s="6" t="s">
         <v>315</v>
       </c>
@@ -5839,7 +6286,7 @@
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
     </row>
-    <row r="124" collapsed="1">
+    <row r="124" spans="1:15" ht="15" collapsed="1">
       <c r="A124" s="2" t="s">
         <v>316</v>
       </c>
@@ -5856,7 +6303,7 @@
       </c>
       <c r="I124" s="2"/>
     </row>
-    <row r="125" hidden="1" outlineLevel="1">
+    <row r="125" spans="1:15" ht="15" outlineLevel="1">
       <c r="A125" s="4" t="s">
         <v>318</v>
       </c>
@@ -5881,7 +6328,7 @@
       <c r="H125" s="4"/>
       <c r="I125" s="5"/>
     </row>
-    <row r="126" hidden="1" outlineLevel="1">
+    <row r="126" spans="1:15" ht="15" outlineLevel="1">
       <c r="A126" s="6" t="s">
         <v>323</v>
       </c>
@@ -5906,7 +6353,7 @@
       <c r="H126" s="6"/>
       <c r="I126" s="7"/>
     </row>
-    <row r="127" hidden="1" outlineLevel="1">
+    <row r="127" spans="1:15" ht="15" outlineLevel="1">
       <c r="A127" s="4" t="s">
         <v>328</v>
       </c>
@@ -5931,7 +6378,7 @@
       <c r="H127" s="4"/>
       <c r="I127" s="5"/>
     </row>
-    <row r="128" hidden="1" outlineLevel="1">
+    <row r="128" spans="1:15" ht="15" outlineLevel="1">
       <c r="A128" s="6" t="s">
         <v>334</v>
       </c>
@@ -5956,7 +6403,7 @@
       <c r="H128" s="6"/>
       <c r="I128" s="7"/>
     </row>
-    <row r="129" hidden="1" outlineLevel="1">
+    <row r="129" spans="1:15" ht="15" outlineLevel="1">
       <c r="A129" s="4" t="s">
         <v>339</v>
       </c>
@@ -5981,7 +6428,7 @@
       <c r="H129" s="4"/>
       <c r="I129" s="5"/>
     </row>
-    <row r="130" hidden="1" outlineLevel="1">
+    <row r="130" spans="1:15" ht="15" outlineLevel="1">
       <c r="A130" s="6" t="s">
         <v>345</v>
       </c>
@@ -6006,7 +6453,7 @@
       <c r="H130" s="6"/>
       <c r="I130" s="7"/>
     </row>
-    <row r="131" hidden="1" outlineLevel="1">
+    <row r="131" spans="1:15" ht="15" outlineLevel="1">
       <c r="A131" s="4" t="s">
         <v>350</v>
       </c>
@@ -6031,7 +6478,7 @@
       <c r="H131" s="4"/>
       <c r="I131" s="5"/>
     </row>
-    <row r="132" hidden="1" outlineLevel="1">
+    <row r="132" spans="1:15" ht="15" outlineLevel="1">
       <c r="A132" s="6" t="s">
         <v>355</v>
       </c>
@@ -6056,7 +6503,7 @@
       <c r="H132" s="6"/>
       <c r="I132" s="7"/>
     </row>
-    <row r="133" hidden="1" outlineLevel="1">
+    <row r="133" spans="1:15" ht="15" outlineLevel="1">
       <c r="A133" s="4" t="s">
         <v>360</v>
       </c>
@@ -6081,7 +6528,7 @@
       <c r="H133" s="4"/>
       <c r="I133" s="5"/>
     </row>
-    <row r="134" hidden="1" outlineLevel="1">
+    <row r="134" spans="1:15" ht="15" outlineLevel="1">
       <c r="A134" s="6" t="s">
         <v>365</v>
       </c>
@@ -6112,7 +6559,7 @@
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
     </row>
-    <row r="135" collapsed="1">
+    <row r="135" spans="1:15" ht="15" collapsed="1">
       <c r="A135" s="2" t="s">
         <v>370</v>
       </c>
@@ -6129,7 +6576,7 @@
       </c>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" hidden="1" outlineLevel="1">
+    <row r="136" spans="1:15" ht="15" outlineLevel="1">
       <c r="A136" s="4" t="s">
         <v>372</v>
       </c>
@@ -6142,7 +6589,7 @@
       <c r="H136" s="4"/>
       <c r="I136" s="5"/>
     </row>
-    <row r="137" hidden="1" outlineLevel="1">
+    <row r="137" spans="1:15" ht="15" outlineLevel="1">
       <c r="A137" s="6" t="s">
         <v>373</v>
       </c>
@@ -6155,7 +6602,7 @@
       <c r="H137" s="6"/>
       <c r="I137" s="7"/>
     </row>
-    <row r="138" hidden="1" outlineLevel="1">
+    <row r="138" spans="1:15" ht="15" outlineLevel="1">
       <c r="A138" s="4" t="s">
         <v>374</v>
       </c>
@@ -6168,7 +6615,7 @@
       <c r="H138" s="4"/>
       <c r="I138" s="5"/>
     </row>
-    <row r="139" hidden="1" outlineLevel="1">
+    <row r="139" spans="1:15" ht="15" outlineLevel="1">
       <c r="A139" s="6" t="s">
         <v>375</v>
       </c>
@@ -6181,7 +6628,7 @@
       <c r="H139" s="6"/>
       <c r="I139" s="7"/>
     </row>
-    <row r="140" hidden="1" outlineLevel="1">
+    <row r="140" spans="1:15" ht="15" outlineLevel="1">
       <c r="A140" s="4" t="s">
         <v>376</v>
       </c>
@@ -6194,7 +6641,7 @@
       <c r="H140" s="4"/>
       <c r="I140" s="5"/>
     </row>
-    <row r="141" hidden="1" outlineLevel="1">
+    <row r="141" spans="1:15" ht="15" outlineLevel="1">
       <c r="A141" s="6" t="s">
         <v>377</v>
       </c>
@@ -6207,7 +6654,7 @@
       <c r="H141" s="6"/>
       <c r="I141" s="7"/>
     </row>
-    <row r="142" hidden="1" outlineLevel="1">
+    <row r="142" spans="1:15" ht="15" outlineLevel="1">
       <c r="A142" s="4" t="s">
         <v>378</v>
       </c>
@@ -6220,7 +6667,7 @@
       <c r="H142" s="4"/>
       <c r="I142" s="5"/>
     </row>
-    <row r="143" hidden="1" outlineLevel="1">
+    <row r="143" spans="1:15" ht="15" outlineLevel="1">
       <c r="A143" s="6" t="s">
         <v>379</v>
       </c>
@@ -6233,7 +6680,7 @@
       <c r="H143" s="6"/>
       <c r="I143" s="7"/>
     </row>
-    <row r="144" hidden="1" outlineLevel="1">
+    <row r="144" spans="1:15" ht="15" outlineLevel="1">
       <c r="A144" s="4" t="s">
         <v>380</v>
       </c>
@@ -6246,7 +6693,7 @@
       <c r="H144" s="4"/>
       <c r="I144" s="5"/>
     </row>
-    <row r="145" hidden="1" outlineLevel="1">
+    <row r="145" spans="1:15" ht="15" outlineLevel="1">
       <c r="A145" s="6" t="s">
         <v>381</v>
       </c>
@@ -6265,7 +6712,7 @@
       <c r="N145" s="8"/>
       <c r="O145" s="8"/>
     </row>
-    <row r="146" collapsed="1">
+    <row r="146" spans="1:15" ht="15" collapsed="1">
       <c r="A146" s="2" t="s">
         <v>382</v>
       </c>
@@ -6282,7 +6729,7 @@
       </c>
       <c r="I146" s="2"/>
     </row>
-    <row r="147" hidden="1" outlineLevel="1">
+    <row r="147" spans="1:15" ht="15" outlineLevel="1">
       <c r="A147" s="4" t="s">
         <v>384</v>
       </c>
@@ -6307,7 +6754,7 @@
       <c r="H147" s="4"/>
       <c r="I147" s="5"/>
     </row>
-    <row r="148" hidden="1" outlineLevel="1">
+    <row r="148" spans="1:15" ht="15" outlineLevel="1">
       <c r="A148" s="6" t="s">
         <v>389</v>
       </c>
@@ -6332,7 +6779,7 @@
       <c r="H148" s="6"/>
       <c r="I148" s="7"/>
     </row>
-    <row r="149" hidden="1" outlineLevel="1">
+    <row r="149" spans="1:15" ht="15" outlineLevel="1">
       <c r="A149" s="4" t="s">
         <v>394</v>
       </c>
@@ -6357,7 +6804,7 @@
       <c r="H149" s="4"/>
       <c r="I149" s="5"/>
     </row>
-    <row r="150" hidden="1" outlineLevel="1">
+    <row r="150" spans="1:15" ht="15" outlineLevel="1">
       <c r="A150" s="6" t="s">
         <v>400</v>
       </c>
@@ -6382,7 +6829,7 @@
       <c r="H150" s="6"/>
       <c r="I150" s="7"/>
     </row>
-    <row r="151" hidden="1" outlineLevel="1">
+    <row r="151" spans="1:15" ht="15" outlineLevel="1">
       <c r="A151" s="4" t="s">
         <v>405</v>
       </c>
@@ -6407,7 +6854,7 @@
       <c r="H151" s="4"/>
       <c r="I151" s="5"/>
     </row>
-    <row r="152" hidden="1" outlineLevel="1">
+    <row r="152" spans="1:15" ht="15" outlineLevel="1">
       <c r="A152" s="6" t="s">
         <v>410</v>
       </c>
@@ -6432,7 +6879,7 @@
       <c r="H152" s="6"/>
       <c r="I152" s="7"/>
     </row>
-    <row r="153" hidden="1" outlineLevel="1">
+    <row r="153" spans="1:15" ht="15" outlineLevel="1">
       <c r="A153" s="4" t="s">
         <v>415</v>
       </c>
@@ -6457,7 +6904,7 @@
       <c r="H153" s="4"/>
       <c r="I153" s="5"/>
     </row>
-    <row r="154" hidden="1" outlineLevel="1">
+    <row r="154" spans="1:15" ht="15" outlineLevel="1">
       <c r="A154" s="6" t="s">
         <v>420</v>
       </c>
@@ -6482,7 +6929,7 @@
       <c r="H154" s="6"/>
       <c r="I154" s="7"/>
     </row>
-    <row r="155" hidden="1" outlineLevel="1">
+    <row r="155" spans="1:15" ht="15" outlineLevel="1">
       <c r="A155" s="4" t="s">
         <v>425</v>
       </c>
@@ -6507,7 +6954,7 @@
       <c r="H155" s="4"/>
       <c r="I155" s="5"/>
     </row>
-    <row r="156" hidden="1" outlineLevel="1">
+    <row r="156" spans="1:15" ht="15" outlineLevel="1">
       <c r="A156" s="6" t="s">
         <v>430</v>
       </c>
@@ -6538,7 +6985,7 @@
       <c r="N156" s="8"/>
       <c r="O156" s="8"/>
     </row>
-    <row r="157" collapsed="1">
+    <row r="157" spans="1:15" ht="15" collapsed="1">
       <c r="A157" s="2" t="s">
         <v>435</v>
       </c>
@@ -6555,7 +7002,7 @@
       </c>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" hidden="1" outlineLevel="1">
+    <row r="158" spans="1:15" ht="15" outlineLevel="1">
       <c r="A158" s="16" t="s">
         <v>437</v>
       </c>
@@ -6568,7 +7015,7 @@
       <c r="H158" s="16"/>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" hidden="1" outlineLevel="1">
+    <row r="159" spans="1:15" ht="15" outlineLevel="1">
       <c r="A159" s="18" t="s">
         <v>438</v>
       </c>
@@ -6581,7 +7028,7 @@
       <c r="H159" s="18"/>
       <c r="I159" s="19"/>
     </row>
-    <row r="160" hidden="1" outlineLevel="1">
+    <row r="160" spans="1:15" ht="15" outlineLevel="1">
       <c r="A160" s="16" t="s">
         <v>439</v>
       </c>
@@ -6594,7 +7041,7 @@
       <c r="H160" s="16"/>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" hidden="1" outlineLevel="1">
+    <row r="161" spans="1:15" ht="15" outlineLevel="1">
       <c r="A161" s="18" t="s">
         <v>440</v>
       </c>
@@ -6607,7 +7054,7 @@
       <c r="H161" s="18"/>
       <c r="I161" s="19"/>
     </row>
-    <row r="162" hidden="1" outlineLevel="1">
+    <row r="162" spans="1:15" ht="15" outlineLevel="1">
       <c r="A162" s="16" t="s">
         <v>441</v>
       </c>
@@ -6620,7 +7067,7 @@
       <c r="H162" s="16"/>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" hidden="1" outlineLevel="1">
+    <row r="163" spans="1:15" ht="15" outlineLevel="1">
       <c r="A163" s="18" t="s">
         <v>442</v>
       </c>
@@ -6633,7 +7080,7 @@
       <c r="H163" s="18"/>
       <c r="I163" s="19"/>
     </row>
-    <row r="164" hidden="1" outlineLevel="1">
+    <row r="164" spans="1:15" ht="15" outlineLevel="1">
       <c r="A164" s="16" t="s">
         <v>443</v>
       </c>
@@ -6646,7 +7093,7 @@
       <c r="H164" s="16"/>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" hidden="1" outlineLevel="1">
+    <row r="165" spans="1:15" ht="15" outlineLevel="1">
       <c r="A165" s="18" t="s">
         <v>444</v>
       </c>
@@ -6659,7 +7106,7 @@
       <c r="H165" s="18"/>
       <c r="I165" s="19"/>
     </row>
-    <row r="166" hidden="1" outlineLevel="1">
+    <row r="166" spans="1:15" ht="15" outlineLevel="1">
       <c r="A166" s="16" t="s">
         <v>445</v>
       </c>
@@ -6672,7 +7119,7 @@
       <c r="H166" s="16"/>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" hidden="1" outlineLevel="1">
+    <row r="167" spans="1:15" ht="15" outlineLevel="1">
       <c r="A167" s="18" t="s">
         <v>446</v>
       </c>
@@ -6691,7 +7138,7 @@
       <c r="N167" s="8"/>
       <c r="O167" s="8"/>
     </row>
-    <row r="169" collapsed="1">
+    <row r="169" spans="1:15" ht="15" collapsed="1">
       <c r="A169" s="20" t="s">
         <v>447</v>
       </c>
@@ -6708,7 +7155,7 @@
       </c>
       <c r="I169" s="21"/>
     </row>
-    <row r="170" hidden="1" outlineLevel="1">
+    <row r="170" spans="1:15" ht="15" outlineLevel="1">
       <c r="A170" s="16" t="s">
         <v>449</v>
       </c>
@@ -6721,7 +7168,7 @@
       <c r="H170" s="16"/>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" hidden="1" outlineLevel="1">
+    <row r="171" spans="1:15" ht="15" outlineLevel="1">
       <c r="A171" s="18" t="s">
         <v>450</v>
       </c>
@@ -6734,7 +7181,7 @@
       <c r="H171" s="18"/>
       <c r="I171" s="19"/>
     </row>
-    <row r="172" collapsed="1">
+    <row r="172" spans="1:15" ht="15" collapsed="1">
       <c r="A172" s="20" t="s">
         <v>451</v>
       </c>
@@ -6751,7 +7198,7 @@
       </c>
       <c r="I172" s="21"/>
     </row>
-    <row r="173" hidden="1" outlineLevel="1">
+    <row r="173" spans="1:15" ht="15" outlineLevel="1">
       <c r="A173" s="16" t="s">
         <v>453</v>
       </c>
@@ -6776,7 +7223,7 @@
       <c r="H173" s="16"/>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" hidden="1" outlineLevel="1">
+    <row r="174" spans="1:15" ht="15" outlineLevel="1">
       <c r="A174" s="18" t="s">
         <v>457</v>
       </c>
@@ -6801,7 +7248,7 @@
       <c r="H174" s="18"/>
       <c r="I174" s="19"/>
     </row>
-    <row r="175" collapsed="1">
+    <row r="175" spans="1:15" ht="15" collapsed="1">
       <c r="A175" s="20" t="s">
         <v>461</v>
       </c>
@@ -6818,7 +7265,7 @@
       </c>
       <c r="I175" s="21"/>
     </row>
-    <row r="176" hidden="1" outlineLevel="1">
+    <row r="176" spans="1:15" ht="15" outlineLevel="1">
       <c r="A176" s="16" t="s">
         <v>463</v>
       </c>
@@ -6831,7 +7278,7 @@
       <c r="H176" s="16"/>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" hidden="1" outlineLevel="1">
+    <row r="177" spans="1:9" ht="15" outlineLevel="1">
       <c r="A177" s="18" t="s">
         <v>464</v>
       </c>
@@ -6844,7 +7291,7 @@
       <c r="H177" s="18"/>
       <c r="I177" s="19"/>
     </row>
-    <row r="178" collapsed="1">
+    <row r="178" spans="1:9" ht="15" collapsed="1">
       <c r="A178" s="20" t="s">
         <v>465</v>
       </c>
@@ -6861,7 +7308,7 @@
       </c>
       <c r="I178" s="21"/>
     </row>
-    <row r="179" hidden="1" outlineLevel="1">
+    <row r="179" spans="1:9" ht="15" outlineLevel="1">
       <c r="A179" s="16" t="s">
         <v>467</v>
       </c>
@@ -6874,7 +7321,7 @@
       <c r="H179" s="16"/>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" hidden="1" outlineLevel="1">
+    <row r="180" spans="1:9" ht="15" outlineLevel="1">
       <c r="A180" s="18" t="s">
         <v>468</v>
       </c>
@@ -6887,7 +7334,7 @@
       <c r="H180" s="18"/>
       <c r="I180" s="19"/>
     </row>
-    <row r="181" collapsed="1">
+    <row r="181" spans="1:9" ht="15" collapsed="1">
       <c r="A181" s="20" t="s">
         <v>469</v>
       </c>
@@ -6904,7 +7351,7 @@
       </c>
       <c r="I181" s="21"/>
     </row>
-    <row r="182" hidden="1" outlineLevel="1">
+    <row r="182" spans="1:9" ht="15" outlineLevel="1">
       <c r="A182" s="16" t="s">
         <v>471</v>
       </c>
@@ -6917,7 +7364,7 @@
       <c r="H182" s="16"/>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" hidden="1" outlineLevel="1">
+    <row r="183" spans="1:9" ht="15" outlineLevel="1">
       <c r="A183" s="18" t="s">
         <v>472</v>
       </c>
@@ -6930,7 +7377,7 @@
       <c r="H183" s="18"/>
       <c r="I183" s="19"/>
     </row>
-    <row r="184" collapsed="1">
+    <row r="184" spans="1:9" ht="15" collapsed="1">
       <c r="A184" s="20" t="s">
         <v>473</v>
       </c>
@@ -6947,7 +7394,7 @@
       </c>
       <c r="I184" s="21"/>
     </row>
-    <row r="185" hidden="1" outlineLevel="1">
+    <row r="185" spans="1:9" ht="15" outlineLevel="1">
       <c r="A185" s="16" t="s">
         <v>475</v>
       </c>
@@ -6972,7 +7419,7 @@
       <c r="H185" s="16"/>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" hidden="1" outlineLevel="1">
+    <row r="186" spans="1:9" ht="15" outlineLevel="1">
       <c r="A186" s="18" t="s">
         <v>480</v>
       </c>
@@ -6997,7 +7444,7 @@
       <c r="H186" s="18"/>
       <c r="I186" s="19"/>
     </row>
-    <row r="187" collapsed="1">
+    <row r="187" spans="1:9" ht="15" collapsed="1">
       <c r="A187" s="20" t="s">
         <v>484</v>
       </c>
@@ -7014,7 +7461,7 @@
       </c>
       <c r="I187" s="21"/>
     </row>
-    <row r="188" hidden="1" outlineLevel="1">
+    <row r="188" spans="1:9" ht="15" outlineLevel="1">
       <c r="A188" s="16" t="s">
         <v>486</v>
       </c>
@@ -7027,7 +7474,7 @@
       <c r="H188" s="16"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" hidden="1" outlineLevel="1">
+    <row r="189" spans="1:9" ht="15" outlineLevel="1">
       <c r="A189" s="18" t="s">
         <v>487</v>
       </c>
@@ -7040,7 +7487,7 @@
       <c r="H189" s="18"/>
       <c r="I189" s="19"/>
     </row>
-    <row r="190" collapsed="1">
+    <row r="190" spans="1:9" ht="15" collapsed="1">
       <c r="A190" s="20" t="s">
         <v>488</v>
       </c>
@@ -7057,7 +7504,7 @@
       </c>
       <c r="I190" s="21"/>
     </row>
-    <row r="191" hidden="1" outlineLevel="1">
+    <row r="191" spans="1:9" ht="15" outlineLevel="1">
       <c r="A191" s="16" t="s">
         <v>490</v>
       </c>
@@ -7080,7 +7527,7 @@
       <c r="H191" s="16"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" hidden="1" outlineLevel="1">
+    <row r="192" spans="1:9" ht="15" outlineLevel="1">
       <c r="A192" s="18" t="s">
         <v>495</v>
       </c>
@@ -7103,7 +7550,7 @@
       <c r="H192" s="18"/>
       <c r="I192" s="19"/>
     </row>
-    <row r="193" collapsed="1">
+    <row r="193" spans="1:9" ht="15" collapsed="1">
       <c r="A193" s="20" t="s">
         <v>500</v>
       </c>
@@ -7120,7 +7567,7 @@
       </c>
       <c r="I193" s="21"/>
     </row>
-    <row r="194" hidden="1" outlineLevel="1">
+    <row r="194" spans="1:9" ht="15" outlineLevel="1">
       <c r="A194" s="16" t="s">
         <v>502</v>
       </c>
@@ -7133,7 +7580,7 @@
       <c r="H194" s="16"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" hidden="1" outlineLevel="1">
+    <row r="195" spans="1:9" ht="15" outlineLevel="1">
       <c r="A195" s="18" t="s">
         <v>503</v>
       </c>
@@ -7146,7 +7593,7 @@
       <c r="H195" s="18"/>
       <c r="I195" s="19"/>
     </row>
-    <row r="196" collapsed="1">
+    <row r="196" spans="1:9" ht="15" collapsed="1">
       <c r="A196" s="20" t="s">
         <v>504</v>
       </c>
@@ -7163,7 +7610,7 @@
       </c>
       <c r="I196" s="21"/>
     </row>
-    <row r="197" hidden="1" outlineLevel="1">
+    <row r="197" spans="1:9" ht="15" outlineLevel="1">
       <c r="A197" s="16" t="s">
         <v>506</v>
       </c>
@@ -7186,7 +7633,7 @@
       <c r="H197" s="16"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" hidden="1" outlineLevel="1">
+    <row r="198" spans="1:9" ht="15" outlineLevel="1">
       <c r="A198" s="18" t="s">
         <v>510</v>
       </c>
@@ -7209,7 +7656,7 @@
       <c r="H198" s="18"/>
       <c r="I198" s="19"/>
     </row>
-    <row r="199" collapsed="1">
+    <row r="199" spans="1:9" ht="15" collapsed="1">
       <c r="A199" s="20" t="s">
         <v>514</v>
       </c>
@@ -7226,7 +7673,7 @@
       </c>
       <c r="I199" s="21"/>
     </row>
-    <row r="200" hidden="1" outlineLevel="1">
+    <row r="200" spans="1:9" ht="15" outlineLevel="1">
       <c r="A200" s="16" t="s">
         <v>516</v>
       </c>
@@ -7251,7 +7698,7 @@
       <c r="H200" s="16"/>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" hidden="1" outlineLevel="1">
+    <row r="201" spans="1:9" ht="15" outlineLevel="1">
       <c r="A201" s="18" t="s">
         <v>522</v>
       </c>
@@ -7276,7 +7723,7 @@
       <c r="H201" s="18"/>
       <c r="I201" s="19"/>
     </row>
-    <row r="202" collapsed="1">
+    <row r="202" spans="1:9" ht="15" collapsed="1">
       <c r="A202" s="20" t="s">
         <v>527</v>
       </c>
@@ -7293,7 +7740,7 @@
       </c>
       <c r="I202" s="21"/>
     </row>
-    <row r="203" hidden="1" outlineLevel="1">
+    <row r="203" spans="1:9" ht="15" outlineLevel="1">
       <c r="A203" s="16" t="s">
         <v>529</v>
       </c>
@@ -7318,7 +7765,7 @@
       <c r="H203" s="16"/>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" hidden="1" outlineLevel="1">
+    <row r="204" spans="1:9" ht="15" outlineLevel="1">
       <c r="A204" s="18" t="s">
         <v>535</v>
       </c>
@@ -7343,7 +7790,7 @@
       <c r="H204" s="18"/>
       <c r="I204" s="19"/>
     </row>
-    <row r="205" collapsed="1">
+    <row r="205" spans="1:9" ht="15" collapsed="1">
       <c r="A205" s="20" t="s">
         <v>540</v>
       </c>
@@ -7360,7 +7807,7 @@
       </c>
       <c r="I205" s="21"/>
     </row>
-    <row r="206" hidden="1" outlineLevel="1">
+    <row r="206" spans="1:9" ht="15" outlineLevel="1">
       <c r="A206" s="16" t="s">
         <v>542</v>
       </c>
@@ -7385,7 +7832,7 @@
       <c r="H206" s="16"/>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" hidden="1" outlineLevel="1">
+    <row r="207" spans="1:9" ht="15" outlineLevel="1">
       <c r="A207" s="18" t="s">
         <v>548</v>
       </c>
@@ -7410,7 +7857,7 @@
       <c r="H207" s="18"/>
       <c r="I207" s="19"/>
     </row>
-    <row r="208" collapsed="1">
+    <row r="208" spans="1:9" ht="15" collapsed="1">
       <c r="A208" s="20" t="s">
         <v>553</v>
       </c>
@@ -7427,7 +7874,7 @@
       </c>
       <c r="I208" s="21"/>
     </row>
-    <row r="209" hidden="1" outlineLevel="1">
+    <row r="209" spans="1:9" ht="15" outlineLevel="1">
       <c r="A209" s="16" t="s">
         <v>555</v>
       </c>
@@ -7450,7 +7897,7 @@
       <c r="H209" s="16"/>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" hidden="1" outlineLevel="1">
+    <row r="210" spans="1:9" ht="15" outlineLevel="1">
       <c r="A210" s="18" t="s">
         <v>559</v>
       </c>
@@ -7473,7 +7920,7 @@
       <c r="H210" s="18"/>
       <c r="I210" s="19"/>
     </row>
-    <row r="211" collapsed="1">
+    <row r="211" spans="1:9" ht="15" collapsed="1">
       <c r="A211" s="20" t="s">
         <v>563</v>
       </c>
@@ -7490,7 +7937,7 @@
       </c>
       <c r="I211" s="21"/>
     </row>
-    <row r="212" hidden="1" outlineLevel="1">
+    <row r="212" spans="1:9" ht="15" outlineLevel="1">
       <c r="A212" s="16" t="s">
         <v>565</v>
       </c>
@@ -7503,7 +7950,7 @@
       <c r="H212" s="16"/>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" hidden="1" outlineLevel="1">
+    <row r="213" spans="1:9" ht="15" outlineLevel="1">
       <c r="A213" s="18" t="s">
         <v>566</v>
       </c>
@@ -7516,7 +7963,7 @@
       <c r="H213" s="18"/>
       <c r="I213" s="19"/>
     </row>
-    <row r="214" collapsed="1">
+    <row r="214" spans="1:9" ht="15" collapsed="1">
       <c r="A214" s="20" t="s">
         <v>567</v>
       </c>
@@ -7533,7 +7980,7 @@
       </c>
       <c r="I214" s="21"/>
     </row>
-    <row r="215" hidden="1" outlineLevel="1">
+    <row r="215" spans="1:9" ht="15" outlineLevel="1">
       <c r="A215" s="16" t="s">
         <v>569</v>
       </c>
@@ -7556,7 +8003,7 @@
       <c r="H215" s="16"/>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" hidden="1" outlineLevel="1">
+    <row r="216" spans="1:9" ht="15" outlineLevel="1">
       <c r="A216" s="18" t="s">
         <v>573</v>
       </c>
@@ -7579,7 +8026,7 @@
       <c r="H216" s="18"/>
       <c r="I216" s="19"/>
     </row>
-    <row r="217" collapsed="1">
+    <row r="217" spans="1:9" ht="15" collapsed="1">
       <c r="A217" s="20" t="s">
         <v>575</v>
       </c>
@@ -7596,7 +8043,7 @@
       </c>
       <c r="I217" s="21"/>
     </row>
-    <row r="218" hidden="1" outlineLevel="1">
+    <row r="218" spans="1:9" ht="15" outlineLevel="1">
       <c r="A218" s="16" t="s">
         <v>577</v>
       </c>
@@ -7609,7 +8056,7 @@
       <c r="H218" s="16"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" hidden="1" outlineLevel="1">
+    <row r="219" spans="1:9" ht="15" outlineLevel="1">
       <c r="A219" s="18" t="s">
         <v>578</v>
       </c>
@@ -7622,7 +8069,7 @@
       <c r="H219" s="18"/>
       <c r="I219" s="19"/>
     </row>
-    <row r="220" collapsed="1">
+    <row r="220" spans="1:9" ht="15" collapsed="1">
       <c r="A220" s="20" t="s">
         <v>579</v>
       </c>
@@ -7639,7 +8086,7 @@
       </c>
       <c r="I220" s="21"/>
     </row>
-    <row r="221" hidden="1" outlineLevel="1">
+    <row r="221" spans="1:9" ht="15" outlineLevel="1">
       <c r="A221" s="16" t="s">
         <v>581</v>
       </c>
@@ -7652,7 +8099,7 @@
       <c r="H221" s="16"/>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" hidden="1" outlineLevel="1">
+    <row r="222" spans="1:9" ht="15" outlineLevel="1">
       <c r="A222" s="18" t="s">
         <v>582</v>
       </c>
@@ -7665,7 +8112,7 @@
       <c r="H222" s="18"/>
       <c r="I222" s="19"/>
     </row>
-    <row r="223" collapsed="1">
+    <row r="223" spans="1:9" ht="15" collapsed="1">
       <c r="A223" s="20" t="s">
         <v>583</v>
       </c>
@@ -7682,7 +8129,7 @@
       </c>
       <c r="I223" s="21"/>
     </row>
-    <row r="224" hidden="1" outlineLevel="1">
+    <row r="224" spans="1:9" ht="15" outlineLevel="1">
       <c r="A224" s="16" t="s">
         <v>585</v>
       </c>
@@ -7695,7 +8142,7 @@
       <c r="H224" s="16"/>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" hidden="1" outlineLevel="1">
+    <row r="225" spans="1:9" ht="15" outlineLevel="1">
       <c r="A225" s="18" t="s">
         <v>586</v>
       </c>
@@ -7708,7 +8155,7 @@
       <c r="H225" s="18"/>
       <c r="I225" s="19"/>
     </row>
-    <row r="226" collapsed="1">
+    <row r="226" spans="1:9" ht="15" collapsed="1">
       <c r="A226" s="20" t="s">
         <v>587</v>
       </c>
@@ -7725,7 +8172,7 @@
       </c>
       <c r="I226" s="21"/>
     </row>
-    <row r="227" hidden="1" outlineLevel="1">
+    <row r="227" spans="1:9" ht="15" outlineLevel="1">
       <c r="A227" s="16" t="s">
         <v>589</v>
       </c>
@@ -7738,7 +8185,7 @@
       <c r="H227" s="16"/>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" hidden="1" outlineLevel="1">
+    <row r="228" spans="1:9" ht="15" outlineLevel="1">
       <c r="A228" s="18" t="s">
         <v>590</v>
       </c>
@@ -7751,7 +8198,7 @@
       <c r="H228" s="18"/>
       <c r="I228" s="19"/>
     </row>
-    <row r="229" collapsed="1">
+    <row r="229" spans="1:9" ht="15" collapsed="1">
       <c r="A229" s="20" t="s">
         <v>591</v>
       </c>
@@ -7768,7 +8215,7 @@
       </c>
       <c r="I229" s="21"/>
     </row>
-    <row r="230" hidden="1" outlineLevel="1">
+    <row r="230" spans="1:9" ht="15" outlineLevel="1">
       <c r="A230" s="16" t="s">
         <v>593</v>
       </c>
@@ -7793,7 +8240,7 @@
       <c r="H230" s="16"/>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" hidden="1" outlineLevel="1">
+    <row r="231" spans="1:9" ht="15" outlineLevel="1">
       <c r="A231" s="18" t="s">
         <v>598</v>
       </c>
@@ -7818,7 +8265,7 @@
       <c r="H231" s="18"/>
       <c r="I231" s="19"/>
     </row>
-    <row r="232" collapsed="1">
+    <row r="232" spans="1:9" ht="15" collapsed="1">
       <c r="A232" s="20" t="s">
         <v>602</v>
       </c>
@@ -7835,7 +8282,7 @@
       </c>
       <c r="I232" s="21"/>
     </row>
-    <row r="233" hidden="1" outlineLevel="1">
+    <row r="233" spans="1:9" ht="15" outlineLevel="1">
       <c r="A233" s="16" t="s">
         <v>604</v>
       </c>
@@ -7858,7 +8305,7 @@
       <c r="H233" s="16"/>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" hidden="1" outlineLevel="1">
+    <row r="234" spans="1:9" ht="15" outlineLevel="1">
       <c r="A234" s="18" t="s">
         <v>608</v>
       </c>
@@ -7881,7 +8328,7 @@
       <c r="H234" s="18"/>
       <c r="I234" s="19"/>
     </row>
-    <row r="235" collapsed="1">
+    <row r="235" spans="1:9" ht="15" collapsed="1">
       <c r="A235" s="20" t="s">
         <v>610</v>
       </c>
@@ -7898,7 +8345,7 @@
       </c>
       <c r="I235" s="21"/>
     </row>
-    <row r="236" hidden="1" outlineLevel="1">
+    <row r="236" spans="1:9" ht="15" outlineLevel="1">
       <c r="A236" s="16" t="s">
         <v>612</v>
       </c>
@@ -7911,7 +8358,7 @@
       <c r="H236" s="16"/>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" hidden="1" outlineLevel="1">
+    <row r="237" spans="1:9" ht="15" outlineLevel="1">
       <c r="A237" s="18" t="s">
         <v>613</v>
       </c>
@@ -7924,7 +8371,7 @@
       <c r="H237" s="18"/>
       <c r="I237" s="19"/>
     </row>
-    <row r="238" collapsed="1">
+    <row r="238" spans="1:9" ht="15" collapsed="1">
       <c r="A238" s="20" t="s">
         <v>614</v>
       </c>
@@ -7941,7 +8388,7 @@
       </c>
       <c r="I238" s="21"/>
     </row>
-    <row r="239" hidden="1" outlineLevel="1">
+    <row r="239" spans="1:9" ht="15" outlineLevel="1">
       <c r="A239" s="16" t="s">
         <v>616</v>
       </c>
@@ -7966,7 +8413,7 @@
       <c r="H239" s="16"/>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" hidden="1" outlineLevel="1">
+    <row r="240" spans="1:9" ht="15" outlineLevel="1">
       <c r="A240" s="18" t="s">
         <v>620</v>
       </c>
@@ -7991,7 +8438,7 @@
       <c r="H240" s="18"/>
       <c r="I240" s="19"/>
     </row>
-    <row r="241" collapsed="1">
+    <row r="241" spans="1:9" ht="15" collapsed="1">
       <c r="A241" s="20" t="s">
         <v>624</v>
       </c>
@@ -8008,7 +8455,7 @@
       </c>
       <c r="I241" s="21"/>
     </row>
-    <row r="242" hidden="1" outlineLevel="1">
+    <row r="242" spans="1:9" ht="15" outlineLevel="1">
       <c r="A242" s="16" t="s">
         <v>626</v>
       </c>
@@ -8021,7 +8468,7 @@
       <c r="H242" s="16"/>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" hidden="1" outlineLevel="1">
+    <row r="243" spans="1:9" ht="15" outlineLevel="1">
       <c r="A243" s="18" t="s">
         <v>627</v>
       </c>
@@ -8034,7 +8481,7 @@
       <c r="H243" s="18"/>
       <c r="I243" s="19"/>
     </row>
-    <row r="244" collapsed="1">
+    <row r="244" spans="1:9" ht="15" collapsed="1">
       <c r="A244" s="20" t="s">
         <v>628</v>
       </c>
@@ -8051,7 +8498,7 @@
       </c>
       <c r="I244" s="21"/>
     </row>
-    <row r="245" hidden="1" outlineLevel="1">
+    <row r="245" spans="1:9" ht="15" outlineLevel="1">
       <c r="A245" s="16" t="s">
         <v>630</v>
       </c>
@@ -8076,7 +8523,7 @@
       <c r="H245" s="16"/>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" hidden="1" outlineLevel="1">
+    <row r="246" spans="1:9" ht="15" outlineLevel="1">
       <c r="A246" s="18" t="s">
         <v>636</v>
       </c>
@@ -8103,100 +8550,112 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C14"/>
-    <hyperlink r:id="rId2" ref="C15"/>
-    <hyperlink r:id="rId3" ref="C19"/>
-    <hyperlink r:id="rId4" ref="C20"/>
-    <hyperlink r:id="rId5" ref="C21"/>
-    <hyperlink r:id="rId6" ref="C22"/>
-    <hyperlink r:id="rId7" ref="C23"/>
-    <hyperlink r:id="rId8" ref="C37"/>
-    <hyperlink r:id="rId9" ref="C38"/>
-    <hyperlink r:id="rId10" ref="C42"/>
-    <hyperlink r:id="rId11" ref="C59"/>
-    <hyperlink r:id="rId12" ref="D59"/>
-    <hyperlink r:id="rId13" ref="C62"/>
-    <hyperlink r:id="rId14" ref="C63"/>
-    <hyperlink r:id="rId15" ref="C64"/>
-    <hyperlink r:id="rId16" ref="C67"/>
-    <hyperlink r:id="rId17" ref="C68"/>
-    <hyperlink r:id="rId18" ref="C81"/>
-    <hyperlink r:id="rId19" ref="D81"/>
-    <hyperlink r:id="rId20" ref="C83"/>
-    <hyperlink r:id="rId21" ref="C85"/>
-    <hyperlink r:id="rId22" ref="C86"/>
-    <hyperlink r:id="rId23" ref="C87"/>
-    <hyperlink r:id="rId24" ref="C88"/>
-    <hyperlink r:id="rId25" ref="C89"/>
-    <hyperlink r:id="rId26" ref="C90"/>
-    <hyperlink r:id="rId27" ref="C103"/>
-    <hyperlink r:id="rId28" ref="D103"/>
-    <hyperlink r:id="rId29" ref="E103"/>
-    <hyperlink r:id="rId30" ref="C104"/>
-    <hyperlink r:id="rId31" ref="C105"/>
-    <hyperlink r:id="rId32" ref="E105"/>
-    <hyperlink r:id="rId33" ref="C106"/>
-    <hyperlink r:id="rId34" ref="C110"/>
-    <hyperlink r:id="rId35" ref="C111"/>
-    <hyperlink r:id="rId36" ref="C112"/>
-    <hyperlink r:id="rId37" ref="C125"/>
-    <hyperlink r:id="rId38" ref="E128"/>
-    <hyperlink r:id="rId39" ref="C129"/>
-    <hyperlink r:id="rId40" ref="C130"/>
-    <hyperlink r:id="rId41" ref="C132"/>
-    <hyperlink r:id="rId42" ref="C133"/>
-    <hyperlink r:id="rId43" ref="C134"/>
-    <hyperlink r:id="rId44" ref="C147"/>
-    <hyperlink r:id="rId45" ref="C148"/>
-    <hyperlink r:id="rId46" ref="D148"/>
-    <hyperlink r:id="rId47" ref="C149"/>
-    <hyperlink r:id="rId48" ref="C150"/>
-    <hyperlink r:id="rId49" ref="D150"/>
-    <hyperlink r:id="rId50" ref="C151"/>
-    <hyperlink r:id="rId51" ref="D151"/>
-    <hyperlink r:id="rId52" ref="C152"/>
-    <hyperlink r:id="rId53" ref="D152"/>
-    <hyperlink r:id="rId54" ref="C153"/>
-    <hyperlink r:id="rId55" ref="D153"/>
-    <hyperlink r:id="rId56" ref="C154"/>
-    <hyperlink r:id="rId57" ref="D154"/>
-    <hyperlink r:id="rId58" ref="C155"/>
-    <hyperlink r:id="rId59" ref="C156"/>
-    <hyperlink r:id="rId60" ref="C185"/>
-    <hyperlink r:id="rId61" ref="C186"/>
-    <hyperlink r:id="rId62" ref="C201"/>
-    <hyperlink r:id="rId63" ref="D201"/>
-    <hyperlink r:id="rId64" ref="C230"/>
-    <hyperlink r:id="rId65" ref="C231"/>
-    <hyperlink r:id="rId66" ref="C239"/>
-    <hyperlink r:id="rId67" ref="C240"/>
-    <hyperlink r:id="rId68" ref="C245"/>
-    <hyperlink r:id="rId69" ref="C246"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C38" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C42" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C59" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D59" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C62" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C63" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C64" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C67" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C68" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C81" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D81" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C83" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C85" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C86" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C87" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C88" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C89" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C90" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C103" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D103" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E103" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C104" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C105" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E105" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C106" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C110" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C111" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C112" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C125" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E128" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C129" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C130" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C132" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C133" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C134" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C147" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C148" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D148" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C149" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C150" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D150" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C151" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D151" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C152" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D152" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C153" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D153" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C154" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D154" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C155" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C156" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C185" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C186" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C201" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D201" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C230" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C231" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C239" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C240" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C245" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C246" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C3" r:id="rId70" xr:uid="{C6C9E799-9D4A-4F4F-9930-E9644C3C40D9}"/>
+    <hyperlink ref="C4" r:id="rId71" xr:uid="{93A5A61C-2FDC-4240-95DF-46E51DEDB348}"/>
+    <hyperlink ref="C5" r:id="rId72" xr:uid="{8CFF2C9C-D1E2-48BF-9698-C98ED3461321}"/>
+    <hyperlink ref="C6" r:id="rId73" xr:uid="{46F51B4F-5A92-4402-9751-700E5D01C99D}"/>
+    <hyperlink ref="C7" r:id="rId74" xr:uid="{DA2FD6DA-2CEE-4B4F-96CE-44345428A331}"/>
+    <hyperlink ref="C8" r:id="rId75" xr:uid="{91F947E5-C56B-456C-BE36-EFC88EDC1C54}"/>
+    <hyperlink ref="C9" r:id="rId76" xr:uid="{AA16D2E4-2A5E-4613-AF49-E26EA74599A4}"/>
+    <hyperlink ref="C10" r:id="rId77" xr:uid="{534BC87D-DB10-4788-833D-7F5412AEE051}"/>
+    <hyperlink ref="C11" r:id="rId78" xr:uid="{59D2AE60-A13F-4CA9-ADA6-ABE67EA96C99}"/>
+    <hyperlink ref="C12" r:id="rId79" xr:uid="{A4F286B9-EE6E-40FE-82F9-E76463396564}"/>
   </hyperlinks>
-  <drawing r:id="rId70"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId80"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.0"/>
-    <col customWidth="1" min="4" max="4" width="27.0"/>
-    <col customWidth="1" min="5" max="5" width="37.43"/>
-    <col customWidth="1" min="6" max="6" width="38.71"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -8225,7 +8684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" collapsed="1">
+    <row r="2" spans="1:9" ht="15" collapsed="1">
       <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
@@ -8240,7 +8699,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:9" ht="45" hidden="1" outlineLevel="1">
       <c r="A3" s="28" t="s">
         <v>641</v>
       </c>
@@ -8265,7 +8724,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:9" ht="59.25" hidden="1" outlineLevel="1">
       <c r="A4" s="19" t="s">
         <v>648</v>
       </c>
@@ -8290,7 +8749,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:9" ht="45" hidden="1" outlineLevel="1">
       <c r="A5" s="17" t="s">
         <v>652</v>
       </c>
@@ -8315,14 +8774,14 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" hidden="1" outlineLevel="1"/>
-    <row r="7" hidden="1" outlineLevel="1"/>
-    <row r="8" hidden="1" outlineLevel="1"/>
-    <row r="9" hidden="1" outlineLevel="1"/>
-    <row r="10" hidden="1" outlineLevel="1"/>
-    <row r="11" hidden="1" outlineLevel="1"/>
-    <row r="12" hidden="1" outlineLevel="1"/>
-    <row r="13" collapsed="1">
+    <row r="6" spans="1:9" ht="12.75" hidden="1" outlineLevel="1"/>
+    <row r="7" spans="1:9" ht="12.75" hidden="1" outlineLevel="1"/>
+    <row r="8" spans="1:9" ht="12.75" hidden="1" outlineLevel="1"/>
+    <row r="9" spans="1:9" ht="12.75" hidden="1" outlineLevel="1"/>
+    <row r="10" spans="1:9" ht="12.75" hidden="1" outlineLevel="1"/>
+    <row r="11" spans="1:9" ht="12.75" hidden="1" outlineLevel="1"/>
+    <row r="12" spans="1:9" ht="12.75" hidden="1" outlineLevel="1"/>
+    <row r="13" spans="1:9" ht="15" collapsed="1">
       <c r="A13" s="27" t="s">
         <v>22</v>
       </c>
@@ -8337,7 +8796,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="14" spans="1:9" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A14" s="28" t="s">
         <v>656</v>
       </c>
@@ -8362,7 +8821,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="15" spans="1:9" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A15" s="19" t="s">
         <v>658</v>
       </c>
@@ -8387,7 +8846,7 @@
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="16" spans="1:9" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A16" s="17" t="s">
         <v>660</v>
       </c>
@@ -8420,6 +8879,6 @@
     <row r="22" ht="15.75" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="23" ht="15.75" hidden="1" customHeight="1" outlineLevel="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>